--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pflsum1-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pflsum1-raw-ss-lookup-tabbed-grade.xlsx
@@ -360,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,159 +380,159 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>130</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>130</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>130</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>130</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -876,9 +876,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>
@@ -889,7 +897,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -909,7 +917,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -917,7 +925,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -925,7 +933,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -933,255 +941,255 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1189,7 +1197,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1197,7 +1205,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1205,7 +1213,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -1213,7 +1221,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -1221,7 +1229,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -1229,7 +1237,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -1237,7 +1245,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -1245,7 +1253,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -1253,7 +1261,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -1261,7 +1269,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -1269,7 +1277,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -1277,7 +1285,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -1285,7 +1293,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -1293,7 +1301,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -1301,7 +1309,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -1309,7 +1317,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -1317,7 +1325,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -1325,7 +1333,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -1333,7 +1341,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -1341,7 +1349,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -1349,7 +1357,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -1357,7 +1365,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -1365,7 +1373,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -1373,7 +1381,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -1381,7 +1389,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -1389,7 +1397,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -1397,7 +1405,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -1405,9 +1413,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>
@@ -1418,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1438,175 +1454,175 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>130</v>
@@ -1614,7 +1630,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>130</v>
@@ -1622,7 +1638,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -1630,7 +1646,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -1638,7 +1654,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -1646,7 +1662,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -1654,7 +1670,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -1662,7 +1678,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -1670,7 +1686,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -1678,7 +1694,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -1686,7 +1702,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -1694,7 +1710,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -1702,7 +1718,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -1710,7 +1726,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1718,7 +1734,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1726,7 +1742,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1734,7 +1750,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -1742,7 +1758,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -1750,7 +1766,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -1758,7 +1774,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -1766,7 +1782,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -1774,7 +1790,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -1782,7 +1798,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -1790,7 +1806,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -1798,7 +1814,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -1806,7 +1822,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -1814,7 +1830,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -1822,7 +1838,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -1830,7 +1846,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -1838,7 +1854,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -1846,7 +1862,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -1854,7 +1870,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -1862,7 +1878,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -1870,7 +1886,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -1878,7 +1894,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -1886,7 +1902,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -1894,7 +1910,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -1902,7 +1918,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -1910,7 +1926,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -1918,7 +1934,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -1926,7 +1942,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -1934,9 +1950,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>
@@ -1947,7 +1971,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1967,199 +1991,199 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -2167,7 +2191,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -2175,7 +2199,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -2183,7 +2207,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -2191,7 +2215,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -2199,7 +2223,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -2207,7 +2231,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -2215,7 +2239,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -2223,7 +2247,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -2231,7 +2255,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -2239,7 +2263,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -2247,7 +2271,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -2255,7 +2279,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2263,7 +2287,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -2271,7 +2295,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -2279,7 +2303,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -2287,7 +2311,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -2295,7 +2319,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -2303,7 +2327,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -2311,7 +2335,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -2319,7 +2343,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -2327,7 +2351,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -2335,7 +2359,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -2343,7 +2367,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -2351,7 +2375,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -2359,7 +2383,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -2367,7 +2391,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -2375,7 +2399,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -2383,7 +2407,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -2391,7 +2415,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -2399,7 +2423,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -2407,7 +2431,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -2415,7 +2439,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -2423,7 +2447,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -2431,7 +2455,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -2439,7 +2463,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -2447,7 +2471,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -2455,7 +2479,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -2463,9 +2487,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>
@@ -2476,7 +2508,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2496,207 +2528,207 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -2704,7 +2736,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -2712,7 +2744,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -2720,7 +2752,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -2728,7 +2760,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -2736,7 +2768,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -2744,7 +2776,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -2752,7 +2784,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -2760,7 +2792,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -2768,7 +2800,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -2776,7 +2808,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -2784,7 +2816,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2792,7 +2824,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -2800,7 +2832,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -2808,7 +2840,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -2816,7 +2848,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -2824,7 +2856,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -2832,7 +2864,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -2840,7 +2872,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -2848,7 +2880,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -2856,7 +2888,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -2864,7 +2896,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -2872,7 +2904,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -2880,7 +2912,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -2888,7 +2920,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -2896,7 +2928,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -2904,7 +2936,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -2912,7 +2944,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -2920,7 +2952,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -2928,7 +2960,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -2936,7 +2968,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -2944,7 +2976,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -2952,7 +2984,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -2960,7 +2992,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -2968,7 +3000,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -2976,7 +3008,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -2984,7 +3016,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -2992,9 +3024,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>
@@ -3005,7 +3045,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3025,223 +3065,223 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -3249,7 +3289,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -3257,7 +3297,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -3265,7 +3305,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -3273,7 +3313,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -3281,7 +3321,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -3289,7 +3329,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -3297,7 +3337,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -3305,7 +3345,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -3313,7 +3353,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -3321,7 +3361,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -3329,7 +3369,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -3337,7 +3377,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -3345,7 +3385,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -3353,7 +3393,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -3361,7 +3401,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -3369,7 +3409,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -3377,7 +3417,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -3385,7 +3425,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -3393,7 +3433,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -3401,7 +3441,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -3409,7 +3449,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -3417,7 +3457,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -3425,7 +3465,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -3433,7 +3473,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -3441,7 +3481,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -3449,7 +3489,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -3457,7 +3497,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -3465,7 +3505,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -3473,7 +3513,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -3481,7 +3521,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -3489,7 +3529,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -3497,7 +3537,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -3505,7 +3545,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -3513,7 +3553,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -3521,9 +3561,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>
@@ -3534,7 +3582,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3554,239 +3602,239 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -3794,7 +3842,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -3802,7 +3850,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -3810,7 +3858,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -3818,7 +3866,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -3826,7 +3874,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -3834,7 +3882,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -3842,7 +3890,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -3850,7 +3898,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -3858,7 +3906,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -3866,7 +3914,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -3874,7 +3922,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -3882,7 +3930,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -3890,7 +3938,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -3898,7 +3946,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -3906,7 +3954,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -3914,7 +3962,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -3922,7 +3970,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -3930,7 +3978,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -3938,7 +3986,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -3946,7 +3994,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -3954,7 +4002,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -3962,7 +4010,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -3970,7 +4018,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -3978,7 +4026,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -3986,7 +4034,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -3994,7 +4042,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -4002,7 +4050,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -4010,7 +4058,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -4018,7 +4066,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -4026,7 +4074,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -4034,7 +4082,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -4042,7 +4090,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -4050,9 +4098,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>
@@ -4063,7 +4119,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4083,247 +4139,247 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -4331,7 +4387,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -4339,7 +4395,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -4347,7 +4403,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -4355,7 +4411,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -4363,7 +4419,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -4371,7 +4427,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -4379,7 +4435,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -4387,7 +4443,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -4395,7 +4451,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -4403,7 +4459,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -4411,7 +4467,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -4419,7 +4475,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -4427,7 +4483,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -4435,7 +4491,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -4443,7 +4499,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -4451,7 +4507,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -4459,7 +4515,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -4467,7 +4523,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -4475,7 +4531,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -4483,7 +4539,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -4491,7 +4547,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -4499,7 +4555,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -4507,7 +4563,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -4515,7 +4571,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -4523,7 +4579,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -4531,7 +4587,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -4539,7 +4595,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -4547,7 +4603,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -4555,7 +4611,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -4563,7 +4619,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -4571,7 +4627,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -4579,9 +4635,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>
@@ -4592,7 +4656,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4612,263 +4676,263 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -4876,7 +4940,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -4884,7 +4948,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -4892,7 +4956,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -4900,7 +4964,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -4908,7 +4972,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -4916,7 +4980,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -4924,7 +4988,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -4932,7 +4996,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -4940,7 +5004,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -4948,7 +5012,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -4956,7 +5020,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -4964,7 +5028,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -4972,7 +5036,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -4980,7 +5044,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -4988,7 +5052,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -4996,7 +5060,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -5004,7 +5068,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -5012,7 +5076,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -5020,7 +5084,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -5028,7 +5092,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -5036,7 +5100,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -5044,7 +5108,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -5052,7 +5116,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -5060,7 +5124,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -5068,7 +5132,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -5076,7 +5140,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -5084,7 +5148,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -5092,7 +5156,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -5100,7 +5164,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -5108,9 +5172,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>
@@ -5121,7 +5193,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5141,7 +5213,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -5149,7 +5221,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -5157,255 +5229,255 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -5413,7 +5485,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -5421,7 +5493,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -5429,7 +5501,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -5437,7 +5509,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -5445,7 +5517,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -5453,7 +5525,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -5461,7 +5533,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -5469,7 +5541,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -5477,7 +5549,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -5485,7 +5557,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -5493,7 +5565,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -5501,7 +5573,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -5509,7 +5581,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -5517,7 +5589,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -5525,7 +5597,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -5533,7 +5605,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -5541,7 +5613,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -5549,7 +5621,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -5557,7 +5629,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -5565,7 +5637,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -5573,7 +5645,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -5581,7 +5653,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -5589,7 +5661,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -5597,7 +5669,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -5605,7 +5677,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -5613,7 +5685,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -5621,7 +5693,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -5629,7 +5701,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -5637,9 +5709,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pflsum1-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pflsum1-raw-ss-lookup-tabbed-grade.xlsx
@@ -383,7 +383,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -391,7 +391,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -399,7 +399,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -407,7 +407,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -415,7 +415,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -423,7 +423,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -431,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -439,7 +439,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -447,7 +447,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -455,7 +455,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
@@ -463,7 +463,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
@@ -471,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14">
@@ -479,7 +479,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
@@ -487,7 +487,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
@@ -495,7 +495,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17">
@@ -503,7 +503,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
@@ -511,7 +511,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
@@ -519,7 +519,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20">
@@ -527,7 +527,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21">
@@ -535,7 +535,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22">
@@ -952,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -976,7 +976,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -984,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -1000,7 +1000,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -1008,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -1016,7 +1016,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -1024,7 +1024,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -1032,7 +1032,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -1040,7 +1040,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -1048,7 +1048,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -1056,7 +1056,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -1064,7 +1064,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
@@ -1072,7 +1072,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -1080,7 +1080,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
@@ -1088,7 +1088,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -1096,7 +1096,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
@@ -1104,7 +1104,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
@@ -1112,7 +1112,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
@@ -1120,7 +1120,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
@@ -1136,7 +1136,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -1473,7 +1473,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -1481,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -1489,7 +1489,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -1497,7 +1497,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1505,7 +1505,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -1513,7 +1513,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1521,7 +1521,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
@@ -1529,7 +1529,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
@@ -1537,7 +1537,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
@@ -1545,7 +1545,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
@@ -1553,7 +1553,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
@@ -1561,7 +1561,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
@@ -1569,7 +1569,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
@@ -1577,7 +1577,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
@@ -1585,7 +1585,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
@@ -1593,7 +1593,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
@@ -1601,7 +1601,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
@@ -1609,7 +1609,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22">
@@ -1617,7 +1617,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
@@ -1625,7 +1625,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24">
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -2010,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -2018,7 +2018,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -2026,7 +2026,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -2034,7 +2034,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -2042,7 +2042,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
@@ -2050,7 +2050,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
@@ -2058,7 +2058,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -2066,7 +2066,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -2074,7 +2074,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
@@ -2082,7 +2082,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
@@ -2090,7 +2090,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -2098,7 +2098,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
@@ -2106,7 +2106,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
@@ -2114,7 +2114,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
@@ -2122,7 +2122,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
@@ -2130,7 +2130,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20">
@@ -2138,7 +2138,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
@@ -2146,7 +2146,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22">
@@ -2154,7 +2154,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
@@ -2162,7 +2162,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24">
@@ -2170,7 +2170,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
@@ -2178,7 +2178,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26">
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -2547,7 +2547,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -2555,7 +2555,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -2563,7 +2563,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -2571,7 +2571,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -2579,7 +2579,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -2587,7 +2587,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -2595,7 +2595,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -2603,7 +2603,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -2611,7 +2611,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -2619,7 +2619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
@@ -2627,7 +2627,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -2635,7 +2635,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -2643,7 +2643,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
@@ -2651,7 +2651,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
@@ -2659,7 +2659,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -2667,7 +2667,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -2675,7 +2675,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
@@ -2683,7 +2683,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -2691,7 +2691,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
@@ -2699,7 +2699,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
@@ -2707,7 +2707,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
@@ -2715,7 +2715,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26">
@@ -2723,7 +2723,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -2731,7 +2731,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28">
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -3084,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -3108,7 +3108,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -3116,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -3124,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -3132,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -3140,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -3148,7 +3148,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -3156,7 +3156,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -3164,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -3172,7 +3172,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
@@ -3180,7 +3180,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
@@ -3188,7 +3188,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -3196,7 +3196,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
@@ -3204,7 +3204,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
@@ -3212,7 +3212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
@@ -3220,7 +3220,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
@@ -3228,7 +3228,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
@@ -3236,7 +3236,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -3244,7 +3244,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
@@ -3252,7 +3252,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
@@ -3260,7 +3260,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
@@ -3268,7 +3268,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
@@ -3276,7 +3276,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -3621,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -3629,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -3637,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -3645,7 +3645,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -3653,7 +3653,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -3661,7 +3661,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -3669,7 +3669,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -3677,7 +3677,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -3685,7 +3685,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -3693,7 +3693,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -3701,7 +3701,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -3709,7 +3709,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -3717,7 +3717,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -3725,7 +3725,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
@@ -3733,7 +3733,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -3741,7 +3741,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
@@ -3749,7 +3749,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -3757,7 +3757,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
@@ -3765,7 +3765,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -3781,7 +3781,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
@@ -3789,7 +3789,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -3797,7 +3797,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
@@ -3829,7 +3829,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -4150,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -4158,7 +4158,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -4166,7 +4166,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -4174,7 +4174,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -4182,7 +4182,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -4190,7 +4190,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -4198,7 +4198,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -4206,7 +4206,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -4214,7 +4214,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -4222,7 +4222,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -4230,7 +4230,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -4238,7 +4238,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -4246,7 +4246,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -4270,7 +4270,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -4278,7 +4278,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
@@ -4286,7 +4286,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
@@ -4294,7 +4294,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
@@ -4302,7 +4302,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -4310,7 +4310,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -4334,7 +4334,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
@@ -4342,7 +4342,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
@@ -4374,7 +4374,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
@@ -4687,7 +4687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -4695,7 +4695,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -4703,7 +4703,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -4711,7 +4711,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -4719,7 +4719,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -4727,7 +4727,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -4735,7 +4735,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -4751,7 +4751,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -4759,7 +4759,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -4767,7 +4767,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -4775,7 +4775,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -4783,7 +4783,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -4791,7 +4791,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
@@ -4799,7 +4799,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
@@ -4807,7 +4807,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -4815,7 +4815,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -4823,7 +4823,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
@@ -4831,7 +4831,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
@@ -4863,7 +4863,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
@@ -4871,7 +4871,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
@@ -4903,7 +4903,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
@@ -4927,7 +4927,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -5248,7 +5248,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -5256,7 +5256,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -5264,7 +5264,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -5272,7 +5272,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -5288,7 +5288,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -5296,7 +5296,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -5304,7 +5304,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
@@ -5320,7 +5320,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -5328,7 +5328,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -5336,7 +5336,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -5344,7 +5344,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -5352,7 +5352,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -5360,7 +5360,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -5368,7 +5368,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
@@ -5376,7 +5376,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -5384,7 +5384,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
@@ -5416,7 +5416,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -5464,7 +5464,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34">
